--- a/backend/AGH_Progi_punktowe.xlsx
+++ b/backend/AGH_Progi_punktowe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laboratorium_Specjalizacyjne\MiUn-Student-App\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B54C60-7FD6-4460-8DCE-B8DF3791952E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6044538F-2150-4403-AFE4-255EB443CB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="20182019" sheetId="1" r:id="rId1"/>
@@ -1003,8 +1003,8 @@
   </sheetPr>
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -1307,7 +1307,7 @@
     </row>
     <row r="26" spans="1:8" ht="12.75">
       <c r="A26" s="5" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="B26" s="6">
         <v>830</v>
@@ -1742,7 +1742,7 @@
   <dimension ref="A1:Z1007"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -11303,7 +11303,7 @@
   </sheetPr>
   <dimension ref="A1:E1004"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
@@ -17759,8 +17759,8 @@
   </sheetPr>
   <dimension ref="A1:F1006"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
@@ -24217,7 +24217,7 @@
   <dimension ref="A1:H1002"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
